--- a/Collaborative 3 JPM vs SP 500 Regression.xlsx
+++ b/Collaborative 3 JPM vs SP 500 Regression.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>Date</t>
   </si>
@@ -126,12 +126,15 @@
   <si>
     <t>Using LINEST :</t>
   </si>
+  <si>
+    <t>COMMENT : Using Regression Function from excel Toolpak</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,6 +273,13 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -647,7 +657,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -662,6 +672,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -986,7 +997,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1006,7 +1017,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>10</v>
@@ -1052,6 +1067,9 @@
       <c r="B8" s="3">
         <v>229</v>
       </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
